--- a/REGULAR/BELLO, ANNA PATRICIO.xlsx
+++ b/REGULAR/BELLO, ANNA PATRICIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\REGULAR DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>PERIOD</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1060,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1103,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1167,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1227,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1293,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1356,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1454,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1513,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1578,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1621,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1696,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1882,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1948,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2006,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2072,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2128,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2203,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2246,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2312,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2368,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2466,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2529,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2595,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K507" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2964,12 +2973,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K506"/>
+  <dimension ref="A2:K507"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A422"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="G476" sqref="G476"/>
+      <pane ySplit="5550" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,7 +3139,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3140,13 +3149,15 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="39"/>
@@ -3162,15 +3173,19 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="40">
+        <v>44986</v>
+      </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -3178,15 +3193,19 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="40">
+        <v>45046</v>
+      </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
@@ -3194,15 +3213,19 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="40">
+        <v>45077</v>
+      </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3210,15 +3233,19 @@
       <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="40">
+        <v>45107</v>
+      </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
@@ -3226,15 +3253,19 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="40">
+        <v>45138</v>
+      </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -3242,15 +3273,19 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="40">
+        <v>45169</v>
+      </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D16" s="39"/>
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="9"/>
@@ -3258,15 +3293,19 @@
       <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="40">
+        <v>45199</v>
+      </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
@@ -3274,15 +3313,19 @@
       <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="40">
+        <v>45230</v>
+      </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
@@ -3290,15 +3333,19 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="40">
+        <v>45260</v>
+      </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="43"/>
       <c r="E19" s="9"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="9"/>
@@ -3306,15 +3353,23 @@
       <c r="K19" s="50"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="43">
+        <v>5</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="43"/>
       <c r="I20" s="9"/>
@@ -3322,31 +3377,37 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="15"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="40">
+        <v>45322</v>
+      </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -3354,7 +3415,9 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="40">
+        <v>45351</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3370,7 +3433,9 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="40">
+        <v>45382</v>
+      </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -3386,7 +3451,9 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="40">
+        <v>45412</v>
+      </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -3402,7 +3469,9 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="40">
+        <v>45443</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3418,7 +3487,9 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>45473</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3546,7 +3617,7 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3562,7 +3633,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3770,7 +3841,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3786,7 +3857,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3799,7 +3870,7 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="49"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
@@ -3831,7 +3902,7 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="49"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
@@ -3847,7 +3918,7 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="49"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
@@ -3895,7 +3966,7 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="49"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
@@ -3911,7 +3982,7 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="49"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
@@ -3943,7 +4014,7 @@
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="49"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
@@ -3991,7 +4062,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="49"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
@@ -4007,7 +4078,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="49"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
@@ -4023,7 +4094,7 @@
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="49"/>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
@@ -4055,7 +4126,7 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="49"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
@@ -4106,7 +4177,7 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4122,7 +4193,7 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4215,7 +4286,7 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="49"/>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
@@ -4263,7 +4334,7 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="49"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
@@ -4295,7 +4366,7 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="49"/>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
@@ -4311,7 +4382,7 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="49"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
@@ -4327,7 +4398,7 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49"/>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
@@ -4343,7 +4414,7 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="49"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
@@ -4375,7 +4446,7 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49"/>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
@@ -4423,7 +4494,7 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="49"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
@@ -4455,7 +4526,7 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="49"/>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
@@ -4487,7 +4558,7 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="49"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
@@ -4503,10 +4574,10 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49"/>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4522,7 +4593,7 @@
       <c r="K95" s="49"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4535,7 +4606,7 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="49"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
@@ -4599,7 +4670,7 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="49"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
@@ -4615,7 +4686,7 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="49"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
@@ -4679,7 +4750,7 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="49"/>
+      <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
@@ -4711,7 +4782,7 @@
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="49"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
@@ -4775,7 +4846,7 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="49"/>
+      <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
@@ -4807,10 +4878,10 @@
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="49"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="48"/>
+      <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -4826,7 +4897,7 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -4935,7 +5006,7 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="49"/>
+      <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
@@ -4951,7 +5022,7 @@
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="49"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
@@ -5018,7 +5089,7 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
+      <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5034,7 +5105,7 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="48"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5127,7 +5198,7 @@
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="49"/>
+      <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
@@ -5143,7 +5214,7 @@
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="49"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
@@ -5191,7 +5262,7 @@
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="49"/>
+      <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
@@ -5223,7 +5294,7 @@
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
+      <c r="K139" s="49"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
@@ -5239,7 +5310,7 @@
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
-      <c r="K140" s="49"/>
+      <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
@@ -5319,10 +5390,10 @@
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="20"/>
+      <c r="K145" s="49"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
+      <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
       <c r="D146" s="39"/>
@@ -5338,7 +5409,7 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
+      <c r="A147" s="48"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
       <c r="D147" s="39"/>
@@ -5530,7 +5601,7 @@
       <c r="K158" s="20"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
+      <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
@@ -5546,7 +5617,7 @@
       <c r="K159" s="20"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+      <c r="A160" s="48"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
       <c r="D160" s="39"/>
@@ -5607,7 +5678,7 @@
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="49"/>
+      <c r="K163" s="20"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
@@ -5623,7 +5694,7 @@
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
+      <c r="K164" s="49"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
@@ -5671,7 +5742,7 @@
       <c r="H167" s="39"/>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="49"/>
+      <c r="K167" s="20"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
@@ -5687,7 +5758,7 @@
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="20"/>
+      <c r="K168" s="49"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
@@ -5703,7 +5774,7 @@
       <c r="H169" s="39"/>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="49"/>
+      <c r="K169" s="20"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
@@ -5719,7 +5790,7 @@
       <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="49"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
@@ -5751,7 +5822,7 @@
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="49"/>
+      <c r="K172" s="20"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
@@ -5815,7 +5886,7 @@
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="20"/>
+      <c r="K176" s="49"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
@@ -5831,10 +5902,10 @@
       <c r="H177" s="39"/>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="49"/>
+      <c r="K177" s="20"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="48"/>
+      <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
       <c r="D178" s="39"/>
@@ -5850,7 +5921,7 @@
       <c r="K178" s="49"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="40"/>
+      <c r="A179" s="48"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
       <c r="D179" s="39"/>
@@ -5879,7 +5950,7 @@
       <c r="H180" s="39"/>
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="20"/>
+      <c r="K180" s="49"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
@@ -5911,7 +5982,7 @@
       <c r="H182" s="39"/>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="49"/>
+      <c r="K182" s="20"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
@@ -5943,7 +6014,7 @@
       <c r="H184" s="39"/>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="20"/>
+      <c r="K184" s="49"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
@@ -5991,7 +6062,7 @@
       <c r="H187" s="39"/>
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
-      <c r="K187" s="49"/>
+      <c r="K187" s="20"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
@@ -6007,7 +6078,7 @@
       <c r="H188" s="39"/>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="20"/>
+      <c r="K188" s="49"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
@@ -6023,7 +6094,7 @@
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="49"/>
+      <c r="K189" s="20"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
@@ -6039,23 +6110,23 @@
       <c r="H190" s="39"/>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="20"/>
+      <c r="K190" s="49"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
-      <c r="B191" s="15"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="13"/>
-      <c r="D191" s="43"/>
+      <c r="D191" s="39"/>
       <c r="E191" s="9"/>
-      <c r="F191" s="15"/>
+      <c r="F191" s="20"/>
       <c r="G191" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H191" s="39"/>
       <c r="I191" s="9"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="50"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="20"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
@@ -6071,23 +6142,23 @@
       <c r="H192" s="39"/>
       <c r="I192" s="9"/>
       <c r="J192" s="12"/>
-      <c r="K192" s="15"/>
+      <c r="K192" s="50"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
-      <c r="B193" s="20"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="13"/>
-      <c r="D193" s="39"/>
+      <c r="D193" s="43"/>
       <c r="E193" s="9"/>
-      <c r="F193" s="20"/>
+      <c r="F193" s="15"/>
       <c r="G193" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H193" s="39"/>
       <c r="I193" s="9"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="49"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="15"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
@@ -6103,7 +6174,7 @@
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="20"/>
+      <c r="K194" s="49"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
@@ -6119,7 +6190,7 @@
       <c r="H195" s="39"/>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="49"/>
+      <c r="K195" s="20"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
@@ -6135,7 +6206,7 @@
       <c r="H196" s="39"/>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="20"/>
+      <c r="K196" s="49"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
@@ -6183,7 +6254,7 @@
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="49"/>
+      <c r="K199" s="20"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
@@ -6199,7 +6270,7 @@
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20"/>
+      <c r="K200" s="49"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
@@ -6237,7 +6308,7 @@
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
-      <c r="D203" s="52"/>
+      <c r="D203" s="39"/>
       <c r="E203" s="9"/>
       <c r="F203" s="20"/>
       <c r="G203" s="13" t="str">
@@ -6253,7 +6324,7 @@
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
-      <c r="D204" s="39"/>
+      <c r="D204" s="52"/>
       <c r="E204" s="9"/>
       <c r="F204" s="20"/>
       <c r="G204" s="13" t="str">
@@ -6279,7 +6350,7 @@
       <c r="H205" s="39"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="49"/>
+      <c r="K205" s="20"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
@@ -6295,7 +6366,7 @@
       <c r="H206" s="39"/>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="20"/>
+      <c r="K206" s="49"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
@@ -6359,7 +6430,7 @@
       <c r="H210" s="39"/>
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
-      <c r="K210" s="49"/>
+      <c r="K210" s="20"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
@@ -6375,7 +6446,7 @@
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="20"/>
+      <c r="K211" s="49"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
@@ -6391,7 +6462,7 @@
       <c r="H212" s="39"/>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="49"/>
+      <c r="K212" s="20"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
@@ -6407,7 +6478,7 @@
       <c r="H213" s="39"/>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="20"/>
+      <c r="K213" s="49"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
@@ -6423,7 +6494,7 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="49"/>
+      <c r="K214" s="20"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
@@ -6439,7 +6510,7 @@
       <c r="H215" s="39"/>
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
-      <c r="K215" s="20"/>
+      <c r="K215" s="49"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
@@ -6474,7 +6545,7 @@
       <c r="K217" s="20"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="48"/>
+      <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
       <c r="D218" s="39"/>
@@ -6490,7 +6561,7 @@
       <c r="K218" s="20"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="40"/>
+      <c r="A219" s="48"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
       <c r="D219" s="39"/>
@@ -6503,7 +6574,7 @@
       <c r="H219" s="39"/>
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
-      <c r="K219" s="49"/>
+      <c r="K219" s="20"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
@@ -6519,7 +6590,7 @@
       <c r="H220" s="39"/>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="20"/>
+      <c r="K220" s="49"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
@@ -6775,7 +6846,7 @@
       <c r="H236" s="39"/>
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
-      <c r="K236" s="49"/>
+      <c r="K236" s="20"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
@@ -6791,7 +6862,7 @@
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
-      <c r="K237" s="20"/>
+      <c r="K237" s="49"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
@@ -6871,7 +6942,7 @@
       <c r="H242" s="39"/>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="49"/>
+      <c r="K242" s="20"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
@@ -6887,7 +6958,7 @@
       <c r="H243" s="39"/>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="20"/>
+      <c r="K243" s="49"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
@@ -6951,7 +7022,7 @@
       <c r="H247" s="39"/>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
-      <c r="K247" s="49"/>
+      <c r="K247" s="20"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
@@ -6999,7 +7070,7 @@
       <c r="H250" s="39"/>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
-      <c r="K250" s="20"/>
+      <c r="K250" s="49"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
@@ -7031,7 +7102,7 @@
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="49"/>
+      <c r="K252" s="20"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
@@ -7047,7 +7118,7 @@
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="20"/>
+      <c r="K253" s="49"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
@@ -7159,7 +7230,7 @@
       <c r="H260" s="39"/>
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
-      <c r="K260" s="49"/>
+      <c r="K260" s="20"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
@@ -7191,10 +7262,10 @@
       <c r="H262" s="39"/>
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
-      <c r="K262" s="20"/>
+      <c r="K262" s="49"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="48"/>
+      <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
       <c r="D263" s="39"/>
@@ -7210,7 +7281,7 @@
       <c r="K263" s="20"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="40"/>
+      <c r="A264" s="48"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
       <c r="D264" s="39"/>
@@ -7223,7 +7294,7 @@
       <c r="H264" s="39"/>
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
-      <c r="K264" s="49"/>
+      <c r="K264" s="20"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
@@ -7239,7 +7310,7 @@
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
-      <c r="K265" s="20"/>
+      <c r="K265" s="49"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
@@ -7255,7 +7326,7 @@
       <c r="H266" s="39"/>
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
-      <c r="K266" s="49"/>
+      <c r="K266" s="20"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
@@ -7271,7 +7342,7 @@
       <c r="H267" s="39"/>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="20"/>
+      <c r="K267" s="49"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
@@ -7303,7 +7374,7 @@
       <c r="H269" s="39"/>
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
-      <c r="K269" s="49"/>
+      <c r="K269" s="20"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
@@ -7335,7 +7406,7 @@
       <c r="H271" s="39"/>
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
-      <c r="K271" s="20"/>
+      <c r="K271" s="49"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
@@ -7351,7 +7422,7 @@
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
-      <c r="K272" s="49"/>
+      <c r="K272" s="20"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
@@ -7383,7 +7454,7 @@
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
-      <c r="K274" s="20"/>
+      <c r="K274" s="49"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
@@ -7399,7 +7470,7 @@
       <c r="H275" s="39"/>
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
-      <c r="K275" s="49"/>
+      <c r="K275" s="20"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
@@ -7415,7 +7486,7 @@
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
-      <c r="K276" s="20"/>
+      <c r="K276" s="49"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
@@ -7447,7 +7518,7 @@
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
-      <c r="K278" s="49"/>
+      <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
@@ -7463,7 +7534,7 @@
       <c r="H279" s="39"/>
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
-      <c r="K279" s="20"/>
+      <c r="K279" s="49"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
@@ -7479,7 +7550,7 @@
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
-      <c r="K280" s="49"/>
+      <c r="K280" s="20"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
@@ -7495,7 +7566,7 @@
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
-      <c r="K281" s="20"/>
+      <c r="K281" s="49"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
@@ -7511,7 +7582,7 @@
       <c r="H282" s="39"/>
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
-      <c r="K282" s="49"/>
+      <c r="K282" s="20"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
@@ -7559,7 +7630,7 @@
       <c r="H285" s="39"/>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="20"/>
+      <c r="K285" s="49"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
@@ -7575,7 +7646,7 @@
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
-      <c r="K286" s="49"/>
+      <c r="K286" s="20"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
@@ -7607,7 +7678,7 @@
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
-      <c r="K288" s="20"/>
+      <c r="K288" s="49"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
@@ -7655,7 +7726,7 @@
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
-      <c r="K291" s="49"/>
+      <c r="K291" s="20"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
@@ -7687,7 +7758,7 @@
       <c r="H293" s="39"/>
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
-      <c r="K293" s="20"/>
+      <c r="K293" s="49"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
@@ -7719,7 +7790,7 @@
       <c r="H295" s="39"/>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
-      <c r="K295" s="49"/>
+      <c r="K295" s="20"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
@@ -7751,10 +7822,10 @@
       <c r="H297" s="39"/>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="20"/>
+      <c r="K297" s="49"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="48"/>
+      <c r="A298" s="40"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
       <c r="D298" s="39"/>
@@ -7770,7 +7841,7 @@
       <c r="K298" s="20"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="40"/>
+      <c r="A299" s="48"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
       <c r="D299" s="39"/>
@@ -7847,7 +7918,7 @@
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
-      <c r="K303" s="49"/>
+      <c r="K303" s="20"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
@@ -7863,7 +7934,7 @@
       <c r="H304" s="39"/>
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
-      <c r="K304" s="20"/>
+      <c r="K304" s="49"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
@@ -7911,7 +7982,7 @@
       <c r="H307" s="39"/>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="49"/>
+      <c r="K307" s="20"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
@@ -7927,7 +7998,7 @@
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
-      <c r="K308" s="20"/>
+      <c r="K308" s="49"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
@@ -7943,7 +8014,7 @@
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="49"/>
+      <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
@@ -7959,7 +8030,7 @@
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="20"/>
+      <c r="K310" s="49"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
@@ -7975,7 +8046,7 @@
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
-      <c r="K311" s="49"/>
+      <c r="K311" s="20"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
@@ -8007,7 +8078,7 @@
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="20"/>
+      <c r="K313" s="49"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
@@ -8039,7 +8110,7 @@
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="49"/>
+      <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
@@ -8071,7 +8142,7 @@
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
-      <c r="K317" s="20"/>
+      <c r="K317" s="49"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
@@ -8087,7 +8158,7 @@
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
-      <c r="K318" s="49"/>
+      <c r="K318" s="20"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
@@ -8103,7 +8174,7 @@
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
-      <c r="K319" s="20"/>
+      <c r="K319" s="49"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
@@ -8135,7 +8206,7 @@
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="49"/>
+      <c r="K321" s="20"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
@@ -8154,7 +8225,7 @@
       <c r="K322" s="49"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="48"/>
+      <c r="A323" s="40"/>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
@@ -8167,10 +8238,10 @@
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="20"/>
+      <c r="K323" s="49"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="40"/>
+      <c r="A324" s="48"/>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
       <c r="D324" s="39"/>
@@ -8183,7 +8254,7 @@
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
-      <c r="K324" s="49"/>
+      <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
@@ -8199,7 +8270,7 @@
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="20"/>
+      <c r="K325" s="49"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
@@ -8215,7 +8286,7 @@
       <c r="H326" s="39"/>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
-      <c r="K326" s="49"/>
+      <c r="K326" s="20"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
@@ -8231,7 +8302,7 @@
       <c r="H327" s="39"/>
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
-      <c r="K327" s="20"/>
+      <c r="K327" s="49"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
@@ -8263,7 +8334,7 @@
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="49"/>
+      <c r="K329" s="20"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
@@ -8295,7 +8366,7 @@
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="20"/>
+      <c r="K331" s="49"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
@@ -8359,7 +8430,7 @@
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
-      <c r="K335" s="49"/>
+      <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
@@ -8391,7 +8462,7 @@
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
-      <c r="K337" s="20"/>
+      <c r="K337" s="49"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
@@ -8455,7 +8526,7 @@
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
-      <c r="K341" s="49"/>
+      <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
@@ -8471,7 +8542,7 @@
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
-      <c r="K342" s="20"/>
+      <c r="K342" s="49"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
@@ -8551,7 +8622,7 @@
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
-      <c r="K347" s="49"/>
+      <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
@@ -8567,7 +8638,7 @@
       <c r="H348" s="39"/>
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
-      <c r="K348" s="20"/>
+      <c r="K348" s="49"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
@@ -8615,7 +8686,7 @@
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
-      <c r="K351" s="49"/>
+      <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
@@ -8631,7 +8702,7 @@
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="20"/>
+      <c r="K352" s="49"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
@@ -8650,7 +8721,7 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="48"/>
+      <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
@@ -8666,7 +8737,7 @@
       <c r="K354" s="20"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="40"/>
+      <c r="A355" s="48"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
@@ -8679,7 +8750,7 @@
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="49"/>
+      <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
@@ -8695,7 +8766,7 @@
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
-      <c r="K356" s="20"/>
+      <c r="K356" s="49"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
@@ -8711,7 +8782,7 @@
       <c r="H357" s="39"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
-      <c r="K357" s="49"/>
+      <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
@@ -8743,7 +8814,7 @@
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
-      <c r="K359" s="20"/>
+      <c r="K359" s="49"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
@@ -8759,7 +8830,7 @@
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="49"/>
+      <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
@@ -8775,7 +8846,7 @@
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
+      <c r="K361" s="49"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
@@ -8954,7 +9025,7 @@
       <c r="K372" s="20"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" s="48"/>
+      <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
       <c r="D373" s="39"/>
@@ -8970,7 +9041,7 @@
       <c r="K373" s="20"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="40"/>
+      <c r="A374" s="48"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
       <c r="D374" s="39"/>
@@ -9162,7 +9233,7 @@
       <c r="K385" s="20"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="48"/>
+      <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
       <c r="D386" s="39"/>
@@ -9178,7 +9249,7 @@
       <c r="K386" s="20"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="40"/>
+      <c r="A387" s="48"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
       <c r="D387" s="39"/>
@@ -9370,7 +9441,7 @@
       <c r="K398" s="20"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="48"/>
+      <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
       <c r="D399" s="39"/>
@@ -9386,7 +9457,7 @@
       <c r="K399" s="20"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="40"/>
+      <c r="A400" s="48"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
@@ -9578,7 +9649,7 @@
       <c r="K411" s="20"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="48"/>
+      <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
       <c r="D412" s="39"/>
@@ -9594,7 +9665,7 @@
       <c r="K412" s="20"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="40"/>
+      <c r="A413" s="48"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
       <c r="D413" s="39"/>
@@ -9786,7 +9857,7 @@
       <c r="K424" s="20"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="48"/>
+      <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
       <c r="D425" s="39"/>
@@ -9802,7 +9873,7 @@
       <c r="K425" s="20"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="40"/>
+      <c r="A426" s="48"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -9994,7 +10065,7 @@
       <c r="K437" s="20"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="48"/>
+      <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
       <c r="D438" s="39"/>
@@ -10010,7 +10081,7 @@
       <c r="K438" s="20"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="40"/>
+      <c r="A439" s="48"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
       <c r="D439" s="39"/>
@@ -11082,20 +11153,36 @@
       <c r="K505" s="20"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="41"/>
-      <c r="B506" s="15"/>
-      <c r="C506" s="42"/>
-      <c r="D506" s="43"/>
-      <c r="E506" s="51"/>
-      <c r="F506" s="15"/>
+      <c r="A506" s="40"/>
+      <c r="B506" s="20"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="20"/>
       <c r="G506" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H506" s="43"/>
-      <c r="I506" s="51"/>
-      <c r="J506" s="12"/>
-      <c r="K506" s="15"/>
+      <c r="H506" s="39"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A507" s="41"/>
+      <c r="B507" s="15"/>
+      <c r="C507" s="42"/>
+      <c r="D507" s="43"/>
+      <c r="E507" s="51"/>
+      <c r="F507" s="15"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H507" s="43"/>
+      <c r="I507" s="51"/>
+      <c r="J507" s="12"/>
+      <c r="K507" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11111,7 +11198,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
